--- a/excel/finished/烧结/烧结公辅环保设施运行情况及在线监测数据发布.xlsx
+++ b/excel/finished/烧结/烧结公辅环保设施运行情况及在线监测数据发布.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>监控数据时间</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>ST6_ENVR_DeSN_LSOutSmoke_1h_avg</t>
+  </si>
+  <si>
+    <t>5#脱硫</t>
+  </si>
+  <si>
+    <t>6#脱硫</t>
   </si>
   <si>
     <t/>
@@ -219,13 +225,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -259,6 +265,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -266,8 +296,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,60 +381,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,21 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -372,16 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -396,14 +418,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +472,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="44"/>
       </patternFill>
@@ -454,32 +490,134 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor theme="8" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -490,8 +628,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
@@ -508,20 +646,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -532,108 +664,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -695,16 +731,56 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,6 +796,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,201 +873,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -993,20 +1075,53 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1341,10 +1456,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1373,12 +1488,12 @@
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:14">
       <c r="A2" s="10"/>
@@ -1409,16 +1524,16 @@
       <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:14">
       <c r="A3" s="11"/>
@@ -1449,16 +1564,16 @@
       <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="19"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:14">
       <c r="A4" s="12" t="s">
@@ -1491,16 +1606,16 @@
       <c r="J4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="18.75" hidden="1" customHeight="1" spans="1:14">
       <c r="A5" s="13"/>
@@ -1540,7 +1655,7 @@
       <c r="M5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:14">
       <c r="A6" s="15" t="str">
@@ -1595,7 +1710,7 @@
         <f>IF(_6tag_day_all!G2="","",_6tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:14">
       <c r="A7" s="15" t="str">
@@ -1650,7 +1765,7 @@
         <f>IF(_6tag_day_all!G3="","",_6tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:14">
       <c r="A8" s="15" t="str">
@@ -1705,7 +1820,7 @@
         <f>IF(_6tag_day_all!G4="","",_6tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:14">
       <c r="A9" s="15" t="str">
@@ -1760,7 +1875,7 @@
         <f>IF(_6tag_day_all!G5="","",_6tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:14">
       <c r="A10" s="15" t="str">
@@ -1815,7 +1930,7 @@
         <f>IF(_6tag_day_all!G6="","",_6tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:14">
       <c r="A11" s="15" t="str">
@@ -1870,7 +1985,7 @@
         <f>IF(_6tag_day_all!G7="","",_6tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="N11" s="21"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:14">
       <c r="A12" s="15" t="str">
@@ -1925,7 +2040,7 @@
         <f>IF(_6tag_day_all!G8="","",_6tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:14">
       <c r="A13" s="15" t="str">
@@ -1980,7 +2095,7 @@
         <f>IF(_6tag_day_all!G9="","",_6tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="N13" s="21"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:14">
       <c r="A14" s="15" t="str">
@@ -2035,7 +2150,7 @@
         <f>IF(_6tag_day_all!G10="","",_6tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="N14" s="21"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:14">
       <c r="A15" s="15" t="str">
@@ -2090,7 +2205,7 @@
         <f>IF(_6tag_day_all!G11="","",_6tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:14">
       <c r="A16" s="15" t="str">
@@ -2145,7 +2260,7 @@
         <f>IF(_6tag_day_all!G12="","",_6tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="N16" s="21"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:14">
       <c r="A17" s="15" t="str">
@@ -2200,7 +2315,7 @@
         <f>IF(_6tag_day_all!G13="","",_6tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="N17" s="21"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:14">
       <c r="A18" s="15" t="str">
@@ -2255,7 +2370,7 @@
         <f>IF(_6tag_day_all!G14="","",_6tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="N18" s="21"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:14">
       <c r="A19" s="15" t="str">
@@ -2310,7 +2425,7 @@
         <f>IF(_6tag_day_all!G15="","",_6tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="N19" s="21"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:14">
       <c r="A20" s="15" t="str">
@@ -2365,7 +2480,7 @@
         <f>IF(_6tag_day_all!G16="","",_6tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="N20" s="21"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:14">
       <c r="A21" s="15" t="str">
@@ -2420,7 +2535,7 @@
         <f>IF(_6tag_day_all!G17="","",_6tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="N21" s="21"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:14">
       <c r="A22" s="15" t="str">
@@ -2475,7 +2590,7 @@
         <f>IF(_6tag_day_all!G18="","",_6tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="N22" s="21"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:14">
       <c r="A23" s="15" t="str">
@@ -2530,7 +2645,7 @@
         <f>IF(_6tag_day_all!G19="","",_6tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="N23" s="21"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:14">
       <c r="A24" s="15" t="str">
@@ -2585,7 +2700,7 @@
         <f>IF(_6tag_day_all!G20="","",_6tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="N24" s="21"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:14">
       <c r="A25" s="15" t="str">
@@ -2640,7 +2755,7 @@
         <f>IF(_6tag_day_all!G21="","",_6tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="N25" s="21"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:14">
       <c r="A26" s="15" t="str">
@@ -2695,7 +2810,7 @@
         <f>IF(_6tag_day_all!G22="","",_6tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="N26" s="21"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:14">
       <c r="A27" s="15" t="str">
@@ -2750,7 +2865,7 @@
         <f>IF(_6tag_day_all!G23="","",_6tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="N27" s="21"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:14">
       <c r="A28" s="15" t="str">
@@ -2805,7 +2920,7 @@
         <f>IF(_6tag_day_all!G24="","",_6tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="N28" s="21"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:14">
       <c r="A29" s="15" t="str">
@@ -2860,72 +2975,275 @@
         <f>IF(_6tag_day_all!G25="","",_6tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="N29" s="21"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A30" s="15" t="str">
+      <c r="A30" s="17" t="str">
         <f>IF(_5tag_day_all!A26="","",_5tag_day_all!A26)</f>
         <v/>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="18" t="str">
         <f>IF(_5tag_day_all!B26="","",_5tag_day_all!B26)</f>
         <v/>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="18" t="str">
         <f>IF(_5tag_day_all!C26="","",_5tag_day_all!C26)</f>
         <v/>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="18" t="str">
         <f>IF(_5tag_day_all!D26="","",_5tag_day_all!D26)</f>
         <v/>
       </c>
-      <c r="E30" s="16" t="str">
+      <c r="E30" s="18" t="str">
         <f>IF(_5tag_day_all!E26="","",_5tag_day_all!E26)</f>
         <v/>
       </c>
-      <c r="F30" s="16" t="str">
+      <c r="F30" s="18" t="str">
         <f>IF(_5tag_day_all!F26="","",_5tag_day_all!F26)</f>
         <v/>
       </c>
-      <c r="G30" s="16" t="str">
+      <c r="G30" s="18" t="str">
         <f>IF(_5tag_day_all!G26="","",_5tag_day_all!G26)</f>
         <v/>
       </c>
-      <c r="H30" s="16" t="str">
+      <c r="H30" s="18" t="str">
         <f>IF(_6tag_day_all!B26="","",_6tag_day_all!B26)</f>
         <v/>
       </c>
-      <c r="I30" s="16" t="str">
+      <c r="I30" s="18" t="str">
         <f>IF(_6tag_day_all!C26="","",_6tag_day_all!C26)</f>
         <v/>
       </c>
-      <c r="J30" s="16" t="str">
+      <c r="J30" s="18" t="str">
         <f>IF(_6tag_day_all!D26="","",_6tag_day_all!D26)</f>
         <v/>
       </c>
-      <c r="K30" s="16" t="str">
+      <c r="K30" s="18" t="str">
         <f>IF(_6tag_day_all!E26="","",_6tag_day_all!E26)</f>
         <v/>
       </c>
-      <c r="L30" s="16" t="str">
+      <c r="L30" s="18" t="str">
         <f>IF(_6tag_day_all!F26="","",_6tag_day_all!F26)</f>
         <v/>
       </c>
-      <c r="M30" s="16" t="str">
+      <c r="M30" s="18" t="str">
         <f>IF(_6tag_day_all!G26="","",_6tag_day_all!G26)</f>
         <v/>
       </c>
-      <c r="N30" s="21"/>
+      <c r="N30" s="30"/>
+    </row>
+    <row r="31" ht="20.25" spans="1:13">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="31"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="31"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="21"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="32"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="21"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="32"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="32"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:M43"/>
+    <mergeCell ref="B32:M37"/>
   </mergeCells>
-  <conditionalFormatting sqref="N13 B5:B1048576 E5:E1048576 H5:H1048576 K5:K1048576">
+  <conditionalFormatting sqref="N13 B5:B30 B44:B1048576 E5:E30 E44:E1048576 H5:H30 H44:H1048576 K5:K30 K44:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>180</formula>
     </cfRule>
@@ -2933,7 +3251,7 @@
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C1048576 F5:F1048576 I5:I1048576 L5:L1048576">
+  <conditionalFormatting sqref="C5:C30 C44:C1048576 F5:F30 F44:F1048576 I5:I30 I44:I1048576 L5:L30 L44:L1048576">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>300</formula>
     </cfRule>
@@ -2941,7 +3259,7 @@
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D1048576 G5:G1048576 J5:J1048576 M5:M1048576">
+  <conditionalFormatting sqref="D5:D30 D44:D1048576 G5:G30 G44:G1048576 J5:J30 J44:J1048576 M5:M30 M44:M1048576">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
@@ -2986,22 +3304,22 @@
         <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +3380,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>43573.6411230556</v>
@@ -3070,155 +3388,155 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>43556.6411230556</v>
@@ -3226,7 +3544,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>43466.6411230556</v>
